--- a/個人課表/T1234565.xlsx
+++ b/個人課表/T1234565.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9942CD8B-6C85-45CC-94DC-3528125C716B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F828B-F509-47B2-BF71-9CED3468A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="360" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,19 +81,13 @@
   <si>
     <t>16:00-17:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>網頁開發</t>
-  </si>
-  <si>
-    <t>環境科學</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,12 +116,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -137,12 +125,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -156,7 +159,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -440,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -465,43 +470,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="4">
+        <v>4927</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>4927</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+      <c r="D5" s="4">
+        <v>4927</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5763</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/個人課表/T1234565.xlsx
+++ b/個人課表/T1234565.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hayashitogi/Documents/GitHub/group_7/個人課表/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F828B-F509-47B2-BF71-9CED3468A428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC1F4C0-1C5B-D748-8822-5CEED6F9224D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1210" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,15 +445,15 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.59765625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,13 +470,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -486,7 +486,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -498,29 +498,27 @@
         <v>5763</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>4927</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>5763</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -528,26 +526,26 @@
       <c r="C8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" customHeight="1">
       <c r="A13" s="2"/>
     </row>
   </sheetData>
